--- a/Data/Input/Input.xlsx
+++ b/Data/Input/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0cb50d4fd5bfc0de/Pulpit/Betacom - zadanie rekrutacyjne/Betacom_Zadanie_Rekrutacyjne_v_0.2/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{41E15D2C-259D-43C3-B179-A5AB30215475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F3AB08-4922-4550-BF6A-9CB1FAB25797}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{41E15D2C-259D-43C3-B179-A5AB30215475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3362B60C-995C-44D9-B72F-9CB1D2B7A1B9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0CB34D68-E816-480A-B3B3-92DF85DBED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>KRS</t>
   </si>
@@ -120,6 +120,33 @@
   </si>
   <si>
     <t>14.06.2012</t>
+  </si>
+  <si>
+    <t>postępowanie o ogłoszenie upadłości przedsiębiorcy</t>
+  </si>
+  <si>
+    <t>OP1O/GU/29/2022</t>
+  </si>
+  <si>
+    <t>27.01.2022</t>
+  </si>
+  <si>
+    <t>05.10.2022</t>
+  </si>
+  <si>
+    <t>zakończone</t>
+  </si>
+  <si>
+    <t>postępowanie upadłościowe dla przedsiębiorcy</t>
+  </si>
+  <si>
+    <t>OP1O/GUp/4/2022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>w toku</t>
   </si>
   <si>
     <t>UIPATH POLAND SPÓŁKA Z OGRANICZONĄ ODPOWIEDZIALNOŚCIĄ</t>
@@ -541,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE81495-D8A3-4F96-8C3F-A5583E8A5586}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,103 +695,125 @@
         <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -857,6 +906,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
@@ -867,15 +919,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DF56AAC514FF894DB9025FD6D51E167D" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="76c5b999bb60df58f39d3ae47f0f9a96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915a8f8f-5e2c-47da-8ee4-e234318d0641" xmlns:ns3="5231f521-4a98-41f3-9ae1-201dce3e5a7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ab3f6e8c38bc0e4d7f7f5c8ce3e5b20" ns2:_="" ns3:_="">
     <xsd:import namespace="915a8f8f-5e2c-47da-8ee4-e234318d0641"/>
@@ -1118,15 +1161,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEED3417-EC0C-413E-B574-9C949658887B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{854C0DD1-8E0D-446E-A0E0-182905A1CBA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1143,4 +1187,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEED3417-EC0C-413E-B574-9C949658887B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>